--- a/DB_DataCollection_09_15_2024.xlsx
+++ b/DB_DataCollection_09_15_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyrat\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D86886B8-AE55-4A1D-AA4F-DC3FE96A536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597946B-7DAB-4336-A807-3E10133C6AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9DA8EA13-845C-E74D-8957-6C5106D71315}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="238">
   <si>
     <t>article_id</t>
   </si>
@@ -608,15 +608,9 @@
     <t>http://biomedbdc.wchscu.cn/StemDriver/</t>
   </si>
   <si>
-    <t>Advancements in mass spectrometry (MS)</t>
-  </si>
-  <si>
     <t>http://bio-bigdata.hrbmu.edu.cn/CancerProteome</t>
   </si>
   <si>
-    <t>Dynamical behaviour</t>
-  </si>
-  <si>
     <t>https://www.dsimb.inserm.fr/ATLAS</t>
   </si>
   <si>
@@ -626,15 +620,9 @@
     <t>https://img.jgi.doe.gov/pr</t>
   </si>
   <si>
-    <t>Molecular dynamics (MD)</t>
-  </si>
-  <si>
     <t>https://bioexcel-cv19.bsc.es/#/</t>
   </si>
   <si>
-    <t>DNA methylation haplotypes (mHaps)</t>
-  </si>
-  <si>
     <t>http://mhap.sibcb.ac.cn/</t>
   </si>
   <si>
@@ -647,15 +635,9 @@
     <t>https://methmarkerdb.hzau.edu.cn/</t>
   </si>
   <si>
-    <t>Polygenic score (PGS)</t>
-  </si>
-  <si>
     <t>http://www.pgsdepot.net/</t>
   </si>
   <si>
-    <t>Transposable elements (TEs)</t>
-  </si>
-  <si>
     <t>http://xozhanglab.com/TETSS</t>
   </si>
   <si>
@@ -720,13 +702,61 @@
   </si>
   <si>
     <t>https://ngdc.cncb.ac.cn/hervd/</t>
+  </si>
+  <si>
+    <t>MBDC0516</t>
+  </si>
+  <si>
+    <t>CancerProteome</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>MBDC1454</t>
+  </si>
+  <si>
+    <t>BioExcel</t>
+  </si>
+  <si>
+    <t>mhap</t>
+  </si>
+  <si>
+    <t>PGS-Depot</t>
+  </si>
+  <si>
+    <t>TE-TSS</t>
+  </si>
+  <si>
+    <t>JL22DB715</t>
+  </si>
+  <si>
+    <t>JL22DB338</t>
+  </si>
+  <si>
+    <t>MBDC1530</t>
+  </si>
+  <si>
+    <t>JL22DB329</t>
+  </si>
+  <si>
+    <t>NAR9158</t>
+  </si>
+  <si>
+    <t>JL22DB695</t>
+  </si>
+  <si>
+    <t>JL22DB406</t>
+  </si>
+  <si>
+    <t>MBDC0495</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -756,13 +786,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -778,11 +820,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1121,7 +1167,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1256,9 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
@@ -1251,6 +1300,9 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
@@ -1292,6 +1344,9 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
@@ -1302,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1332,6 +1387,9 @@
       </c>
       <c r="J5" t="b">
         <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1374,6 +1432,9 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
@@ -1410,16 +1471,19 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -1451,16 +1515,19 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1497,11 +1564,14 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -1538,11 +1608,14 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -1574,16 +1647,19 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -1615,16 +1691,19 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -1661,11 +1740,14 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -1697,16 +1779,19 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -1738,16 +1823,19 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -1779,16 +1867,19 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -1825,11 +1916,14 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -1866,11 +1960,14 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -1907,17 +2004,20 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -1948,11 +2048,14 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -1984,16 +2087,19 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -2025,16 +2131,19 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -2071,11 +2180,14 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -2107,16 +2219,19 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -2148,16 +2263,19 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -2189,16 +2307,19 @@
         <v>17</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -2230,16 +2351,19 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -2276,17 +2400,20 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2317,11 +2444,14 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -2358,11 +2488,14 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
       <c r="L30" t="b">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
@@ -2399,11 +2532,14 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
@@ -2423,6 +2559,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE061FA0D3B39141ABB0BC56F7C8CB6A" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1f3a8bd7fb29beb5d1559698b7200a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07fc88660595dabc5227f833d9fc0668">
     <xsd:element name="properties">
@@ -2536,22 +2687,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56382ADA-0806-4B72-9D93-BD90943719D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48410A88-BF1F-4C0D-B897-6045646D1982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DDDB57-A3C5-4E6C-9FCB-622852F95DA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2565,27 +2724,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48410A88-BF1F-4C0D-B897-6045646D1982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56382ADA-0806-4B72-9D93-BD90943719D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>